--- a/code/notebooks/phase2results_new/itemsVsacc_DSM.xlsx
+++ b/code/notebooks/phase2results_new/itemsVsacc_DSM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,640 +452,772 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6837199549329702</v>
+        <v>0.6153281699606469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01177106995188294</v>
+        <v>0.006685640905160624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7203426668765519</v>
+        <v>0.636346755377265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04573408308531283</v>
+        <v>0.004650843049767727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7296426238948033</v>
+        <v>0.636346755377265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0115834722178494</v>
+        <v>0.004711030676500878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7667582675116758</v>
+        <v>0.6597606942619669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01069921720681521</v>
+        <v>0.003769831172155832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8469316720538489</v>
+        <v>0.6637938518238783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0186412512152311</v>
+        <v>0.004520535970737171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8469316720538489</v>
+        <v>0.6637938518238783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01203771831413113</v>
+        <v>0.004337811540585776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8586947478759616</v>
+        <v>0.6647876864615169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01434408508749915</v>
+        <v>0.002959975670244944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.949682265316888</v>
+        <v>0.6755229013282547</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01405990736289854</v>
+        <v>0.004206182401486955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.95064058987369</v>
+        <v>0.7032691956933685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02303394750426931</v>
+        <v>0.004539857352408559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.975042433277462</v>
+        <v>0.7304120570410512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01411793914750746</v>
+        <v>0.005326882309625676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9796790281310508</v>
+        <v>0.8001116313111311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01354896369709669</v>
+        <v>0.005456104711084085</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.8001116313111311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01214857436744302</v>
+        <v>0.008547538196344457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.8483061114080492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01610239742853073</v>
+        <v>0.009711481826691661</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.8986509130936378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01448278952084223</v>
+        <v>0.0126979041414317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.900757304939826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0186421358172609</v>
+        <v>0.01185455122368714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.900757304939826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01685105241941738</v>
+        <v>0.01581794631706316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9809762067820668</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02012362933964443</v>
+        <v>0.01570802389647574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9811318733506144</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01255533448365227</v>
+        <v>0.01771822061258569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9811318733506144</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01139424112468045</v>
+        <v>0.01860706050312774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9811318733506144</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008795902165028171</v>
+        <v>0.02314007235977577</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9811318733506144</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01000548501647743</v>
+        <v>0.02119266077355233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.98116758267963</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009920260679261838</v>
+        <v>0.02217235342089021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9822757832229884</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01051441486755905</v>
+        <v>0.01838737317899168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9822757832229884</v>
+        <v>0.9052926846683376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01012998249425031</v>
+        <v>0.01894051389703019</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9087892176531398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01079846928628106</v>
+        <v>0.01726804045717642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9087892176531398</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008809086737520422</v>
+        <v>0.02117290503374032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9091657492550074</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007487125589544485</v>
+        <v>0.01710493902348843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006721287519517832</v>
+        <v>0.01813324748610091</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006767899811556709</v>
+        <v>0.01848339471833697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006339679920283506</v>
+        <v>0.02117665199624724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006335687670916544</v>
+        <v>0.02003485142523216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9161669103004332</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004947232465844928</v>
+        <v>0.02167751711309403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006094013435822832</v>
+        <v>0.01705453833329669</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00474317597262502</v>
+        <v>0.01902936893139542</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004458476639144859</v>
+        <v>0.01695277057412794</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004225892308270624</v>
+        <v>0.0171903744426109</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004176656173973833</v>
+        <v>0.01471525709564125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003564495309323301</v>
+        <v>0.01915560234382408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9261130538295698</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004020451551667272</v>
+        <v>0.01760332512281413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.927431889515984</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003180741669945125</v>
+        <v>0.01707782203504836</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9279255420956678</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00331280853641889</v>
+        <v>0.01589651689368814</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9279255420956678</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002574339894905975</v>
+        <v>0.01513390054021615</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003205033021620119</v>
+        <v>0.01343161354213307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002294637890211522</v>
+        <v>0.01545274497325523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9312856605982068</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002659762044482758</v>
+        <v>0.01268826975502691</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.001914494031793838</v>
+        <v>0.01371196638120687</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C48" t="n">
-        <v>0.002071471195771812</v>
+        <v>0.01195456098462279</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001926875288369766</v>
+        <v>0.01198828394499083</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002408543382460389</v>
+        <v>0.0106387445814161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001872561154446331</v>
+        <v>0.01152951548129588</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001927810797155046</v>
+        <v>0.009196072598381599</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.936001928376915</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001798359688196074</v>
+        <v>0.01048562519703554</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002214509341557445</v>
+        <v>0.008988434636054275</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002342282841765664</v>
+        <v>0.00816405890121054</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003752873818384152</v>
+        <v>0.007285030730228786</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004181648173261556</v>
+        <v>0.008541600860862935</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9879120879120882</v>
+        <v>0.9407876515532358</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01969490745503563</v>
+        <v>0.005702730491483721</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9407876515532358</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005625661881809528</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B59" t="n">
-        <v>0.9879120879120882</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.02785280523259437</v>
+      <c r="B60" t="n">
+        <v>0.9412985549910156</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.004660704966598702</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9412985549910156</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.004359399180066235</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9443501047854622</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.00338320263599359</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9443501047854622</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.003444063072640694</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9443501047854622</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.002653035093753708</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.002673749655315334</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.001857016797042866</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.001849266995429393</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.001467684317948968</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.001442205082839751</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.001663927944785786</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9458733256091834</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.003907779261214548</v>
       </c>
     </row>
   </sheetData>
